--- a/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(J)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(J).xlsx
+++ b/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(J)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(J).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(J)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(J)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(J)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(J)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jac
-Jacqueshuberia
-Jas
-Jasminum - Oléacées (arbuste)
+          <t>Jac</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jacqueshuberia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(J)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(J)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Jas</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jasminum - Oléacées (arbuste)
 Jasminum angulare
 Jasminum azoricum
 Jasminum fruticans
@@ -531,44 +582,7 @@
 Jasonia glutinosa - Jasonia glutineux
 Jasione - Campanulacées
 Jasione montana - Jasione des montagnes
-Jasione laevis - Jasione vivace
-Jat
-Jatropha - fam. Euphorbiacées (plante tropicale)
-Jatropha multifida - Médicinier
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(J)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(J)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Js</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jsa
-Jsasaella ramosa - Poacées
-Jsasaella ramosa ou Pleioblastus viridi vagans - bambou
-</t>
+Jasione laevis - Jasione vivace</t>
         </is>
       </c>
     </row>
@@ -578,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(J)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(J)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,20 +607,135 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Ja</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jatropha - fam. Euphorbiacées (plante tropicale)
+Jatropha multifida - Médicinier
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(J)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(J)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Js</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Jsa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jsasaella ramosa - Poacées
+Jsasaella ramosa ou Pleioblastus viridi vagans - bambou
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(J)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(J)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Ju</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jug
-Juglans - Juglandacées (arbre fruitier)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Jug</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Juglans - Juglandacées (arbre fruitier)
 Juglans ailantifolia
 Juglans mandshurica
 Juglans nigra - Noyer noir ou « noyer d'Amérique »
 Juglans regia - Noyer commun ou « Acajou d'Europe »
-Juglans stenocarpa
-Jun
-Juncus - Joncacées
+Juglans stenocarpa</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(J)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(J)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ju</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Juncus - Joncacées
 Juncus alpinoarticulatus
 Juncus dudleyi
 Juncus effusus
@@ -621,9 +750,43 @@
 Juniperus phoenicea - Genévrier de Phénicie
 Juniperus recurva - Genévrier de l'Himalaya
 Juniperus rigida - Genévrier rigide
-Juniperus thurifera - Genévrier thurifère
-Jus
-Justicia
+Juniperus thurifera - Genévrier thurifère</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(J)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(J)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ju</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Jus</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Justicia
 Justicia brandegeana - Beloperone
  Portail de l’écologie   Portail de la botanique                    </t>
         </is>
